--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_19-47.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_19-47.xlsx
@@ -113,6 +113,9 @@
     <t>BURNASORES 0.25% OINT. 30 GM</t>
   </si>
   <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -164,7 +167,7 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>4:2</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -404,13 +407,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>7794:0</t>
+    <t>7793:0</t>
   </si>
   <si>
     <t>XORAXON 1GM I.M. VIAL</t>
@@ -437,10 +437,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-6:0</t>
-  </si>
-  <si>
-    <t>36:0</t>
+    <t>-5:0</t>
+  </si>
+  <si>
+    <t>41:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1491,17 +1491,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1517,17 +1517,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1535,7 +1535,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1543,17 +1543,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1569,17 +1569,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1595,17 +1595,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1621,17 +1621,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1639,7 +1639,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1647,17 +1647,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1665,7 +1665,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1673,17 +1673,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1691,7 +1691,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1699,13 +1699,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>92</v>
+        <v>27.5</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1725,13 +1725,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1743,7 +1743,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1751,13 +1751,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1777,13 +1777,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1795,7 +1795,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1803,13 +1803,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1821,7 +1821,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1829,13 +1829,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1855,17 +1855,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>122.5</v>
+        <v>27</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1873,7 +1873,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1881,17 +1881,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>194</v>
+        <v>122.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1907,17 +1907,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1933,17 +1933,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1951,7 +1951,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1959,17 +1959,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1977,7 +1977,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1985,17 +1985,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -2011,13 +2011,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -2037,13 +2037,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -2063,17 +2063,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2089,17 +2089,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2115,17 +2115,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2141,17 +2141,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2167,17 +2167,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2193,13 +2193,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2219,13 +2219,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2245,17 +2245,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>30.670000000000002</v>
+        <v>34</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2271,17 +2271,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>100</v>
+        <v>30.670000000000002</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2297,17 +2297,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2323,17 +2323,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2349,17 +2349,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2375,13 +2375,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2407,11 +2407,11 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2427,17 +2427,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>-290</v>
+        <v>84</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2453,13 +2453,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>200</v>
+        <v>-290</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2479,13 +2479,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2505,13 +2505,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2531,13 +2531,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2563,11 +2563,11 @@
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>72.5</v>
+        <v>55</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2583,17 +2583,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>27.329999999999998</v>
+        <v>72.5</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2601,7 +2601,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2609,17 +2609,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>274</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2635,17 +2635,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2661,17 +2661,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2687,17 +2687,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2713,17 +2713,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>-57</v>
+        <v>75</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2739,17 +2739,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>39</v>
+        <v>-57</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2765,17 +2765,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2791,17 +2791,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2817,17 +2817,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2835,7 +2835,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2843,17 +2843,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2869,17 +2869,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>76.439999999999998</v>
+        <v>28</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2895,17 +2895,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>270</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2921,17 +2921,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2939,7 +2939,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2947,17 +2947,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2973,17 +2973,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2999,17 +2999,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3025,17 +3025,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3057,11 +3057,11 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3077,13 +3077,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3109,11 +3109,11 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3129,17 +3129,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3155,13 +3155,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>7.0499999999999998</v>
+        <v>67</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3181,13 +3181,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>47.670000000000002</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3199,7 +3199,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3207,17 +3207,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>89.099999999999994</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3233,17 +3233,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>27</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3259,13 +3259,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>-185</v>
+        <v>27</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3285,17 +3285,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>71</v>
+        <v>-185</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3311,17 +3311,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>45.5</v>
+        <v>71</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3329,7 +3329,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3337,17 +3337,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3369,7 +3369,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3389,13 +3389,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3421,11 +3421,11 @@
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3441,17 +3441,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3467,17 +3467,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3493,17 +3493,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3519,17 +3519,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3545,13 +3545,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3571,13 +3571,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3597,17 +3597,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3615,7 +3615,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3623,17 +3623,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3641,7 +3641,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3649,17 +3649,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3667,7 +3667,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3675,17 +3675,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3693,7 +3693,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3701,13 +3701,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3719,7 +3719,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3727,7 +3727,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
@@ -3745,7 +3745,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3753,13 +3753,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>139</v>
+        <v>23</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3771,7 +3771,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3779,13 +3779,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3797,7 +3797,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3805,17 +3805,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3823,7 +3823,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3831,17 +3831,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3849,7 +3849,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3857,17 +3857,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>9</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3875,7 +3875,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3883,13 +3883,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3901,7 +3901,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3909,13 +3909,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
@@ -3927,7 +3927,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3935,13 +3935,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3953,7 +3953,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3961,13 +3961,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>68.599999999999994</v>
+        <v>10</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -3979,7 +3979,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3987,13 +3987,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>15</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
@@ -4005,7 +4005,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4013,13 +4013,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>44.549999999999997</v>
+        <v>15</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4031,7 +4031,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4039,13 +4039,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>30</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4057,7 +4057,7 @@
         <v>116</v>
       </c>
       <c t="s" r="B119" s="7">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -4071,45 +4071,71 @@
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" ht="25.5" customHeight="1">
+      <c r="A120" s="6">
+        <v>117</v>
+      </c>
+      <c t="s" r="B120" s="7">
+        <v>157</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c t="s" r="H120" s="8">
+        <v>156</v>
+      </c>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="9">
+        <v>70</v>
+      </c>
+      <c r="M120" s="9"/>
+      <c t="s" r="N120" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="120" ht="26.25" customHeight="1">
-      <c r="K120" s="10">
-        <v>6180.4099999999999</v>
-      </c>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="11">
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="K121" s="10">
+        <v>6395.9099999999999</v>
+      </c>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="11">
         <v>158</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c t="s" r="F121" s="12">
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c t="s" r="F122" s="12">
         <v>159</v>
       </c>
-      <c r="G121" s="12"/>
-      <c r="H121" s="13"/>
-      <c t="s" r="I121" s="14">
+      <c r="G122" s="12"/>
+      <c r="H122" s="13"/>
+      <c t="s" r="I122" s="14">
         <v>160</v>
       </c>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
-      <c r="L121" s="14"/>
-      <c r="M121" s="14"/>
-      <c r="N121" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="359">
+  <mergeCells count="362">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4465,10 +4491,13 @@
     <mergeCell ref="B119:G119"/>
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
-    <mergeCell ref="K120:N120"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="I121:N121"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="K121:N121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="I122:N122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
